--- a/biology/Botanique/Tragus_berteronianus/Tragus_berteronianus.xlsx
+++ b/biology/Botanique/Tragus_berteronianus/Tragus_berteronianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tragus berteronianus est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire des régions tropicales de l'Ancien Monde.
 Étymologie
@@ -513,12 +525,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Tragus berteronianus s'étend dans les régions tropicale et tempérées chaudes d'Afrique et d'Asie :
 en Afrique : Afrique du Sud, Angola, Botswana, Burkina Faso, Égypte, Éthiopie, Kenya, Malawi, Mali, Mozambique, Namibie, Somalie, Soudan, Swaziland, Tanzanie, Ouganda, Zimbabwe
 en Asie : Afghanistan, Arabie Saoudite, Chine, Iran, Pakistan.
-L'espèce s'est naturalisée en Amérique du Nord (Mexique) et dans la région du Pacifique[2].
+L'espèce s'est naturalisée en Amérique du Nord (Mexique) et dans la région du Pacifique.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 octobre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 octobre 2017) :
 Lappago berteroniana Schult. ex Steud.,
 Lappago occidentalis (Nees) Hook.f.
 Lappago phleoides Fig. &amp; De Not.
